--- a/tests/test-files/test_helpers/expected/wrangle_book_output/sheet_94.xlsx
+++ b/tests/test-files/test_helpers/expected/wrangle_book_output/sheet_94.xlsx
@@ -526,15 +526,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-3p450mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-3p450mgml</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -608,15 +608,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-3p450mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-3p450mgml</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -632,13 +632,13 @@
         <v>4.21</v>
       </c>
       <c r="I3" t="n">
-        <v>1.4959</v>
+        <v>1.5411</v>
       </c>
       <c r="J3" t="n">
-        <v>23.97</v>
+        <v>1.66</v>
       </c>
       <c r="K3" t="n">
-        <v>643.79</v>
+        <v>45.99</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>2.96</v>
+        <v>2.16</v>
       </c>
       <c r="R3" t="n">
-        <v>729.8845</v>
+        <v>715.4579</v>
       </c>
     </row>
     <row r="4">
@@ -670,15 +670,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-3p450mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-3p450mgml</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -694,13 +694,13 @@
         <v>4.13</v>
       </c>
       <c r="I4" t="n">
-        <v>1.3548</v>
+        <v>1.4118</v>
       </c>
       <c r="J4" t="n">
-        <v>1.49</v>
+        <v>1.66</v>
       </c>
       <c r="K4" t="n">
-        <v>36.18</v>
+        <v>42.13</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>2.89</v>
+        <v>1.94</v>
       </c>
       <c r="R4" t="n">
-        <v>712.5302</v>
+        <v>644.5279</v>
       </c>
     </row>
     <row r="5">
@@ -732,15 +732,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-3p450mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-3p450mgml</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -756,13 +756,13 @@
         <v>3.51</v>
       </c>
       <c r="I5" t="n">
-        <v>6.5568</v>
+        <v>6.6845</v>
       </c>
       <c r="J5" t="n">
-        <v>27.2</v>
+        <v>26.36</v>
       </c>
       <c r="K5" t="n">
-        <v>3201.74</v>
+        <v>3163.75</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -782,10 +782,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>11.46</v>
+        <v>8.15</v>
       </c>
       <c r="R5" t="n">
-        <v>2826.9593</v>
+        <v>2701.5604</v>
       </c>
     </row>
     <row r="6">
@@ -794,15 +794,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-3p450mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-3p450mgml</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -818,13 +818,13 @@
         <v>3.19</v>
       </c>
       <c r="I6" t="n">
-        <v>7.7648</v>
+        <v>8.124599999999999</v>
       </c>
       <c r="J6" t="n">
-        <v>26.17</v>
+        <v>25.84</v>
       </c>
       <c r="K6" t="n">
-        <v>3648.3</v>
+        <v>3768.74</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -844,10 +844,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>9.050000000000001</v>
+        <v>6.98</v>
       </c>
       <c r="R6" t="n">
-        <v>2233.6017</v>
+        <v>2313.9944</v>
       </c>
     </row>
     <row r="7">
@@ -856,15 +856,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-3p450mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-3p450mgml</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -880,13 +880,13 @@
         <v>3.01</v>
       </c>
       <c r="I7" t="n">
-        <v>3.6302</v>
+        <v>3.6879</v>
       </c>
       <c r="J7" t="n">
-        <v>30.84</v>
+        <v>31.17</v>
       </c>
       <c r="K7" t="n">
-        <v>2010.05</v>
+        <v>2063.64</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -906,10 +906,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>6.63</v>
+        <v>5.01</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.3477</v>
+        <v>1659.8038</v>
       </c>
     </row>
     <row r="8">
@@ -918,15 +918,15 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-3p450mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-3p450mgml</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -942,13 +942,13 @@
         <v>1.69</v>
       </c>
       <c r="I8" t="n">
-        <v>40.833</v>
+        <v>43.0824</v>
       </c>
       <c r="J8" t="n">
-        <v>4.02</v>
+        <v>3.91</v>
       </c>
       <c r="K8" t="n">
-        <v>2944.24</v>
+        <v>3024.22</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -968,10 +968,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>12</v>
+        <v>8.94</v>
       </c>
       <c r="R8" t="n">
-        <v>2960.4208</v>
+        <v>2962.1894</v>
       </c>
     </row>
     <row r="9">
@@ -980,15 +980,15 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-3p450mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-3p450mgml</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -1004,13 +1004,13 @@
         <v>0.84</v>
       </c>
       <c r="I9" t="n">
-        <v>8.987</v>
+        <v>10.6942</v>
       </c>
       <c r="J9" t="n">
-        <v>1.96</v>
+        <v>1.79</v>
       </c>
       <c r="K9" t="n">
-        <v>315.82</v>
+        <v>342.75</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -1030,10 +1030,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>1</v>
+        <v>0.82</v>
       </c>
       <c r="R9" t="n">
-        <v>247.2445</v>
+        <v>273.2671</v>
       </c>
     </row>
   </sheetData>
